--- a/saved_solutions/case_001/case_001_summary.xlsx
+++ b/saved_solutions/case_001/case_001_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,10 +489,20 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>best_final_vehicle_route_cost</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>best_final_state_total_cost_attr</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>best_final_vehicle_max_times</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>best_final_global_max_time</t>
         </is>
@@ -505,34 +515,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2399.733525032666</v>
+        <v>4610.82713965796</v>
       </c>
       <c r="C2" t="n">
-        <v>1507.018287181854</v>
+        <v>3.973165512084961</v>
       </c>
       <c r="D2" t="n">
-        <v>25.62830940289028</v>
+        <v>20.91633243111433</v>
       </c>
       <c r="E2" t="n">
-        <v>1540.701708982943</v>
+        <v>3587.846939359714</v>
       </c>
       <c r="F2" t="n">
-        <v>2399.733525032666</v>
+        <v>5455.118763531706</v>
       </c>
       <c r="G2" t="n">
-        <v>1148.694280255115</v>
+        <v>1269.191260487206</v>
       </c>
       <c r="H2" t="n">
-        <v>3710.953543219426</v>
+        <v>5334.574365588145</v>
       </c>
       <c r="I2" t="n">
-        <v>1615.979398850059</v>
+        <v>3033.65446130625</v>
       </c>
       <c r="J2" t="n">
-        <v>2764.673679105172</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>4302.845721793457</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1031.728643794688</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4834.692326164743</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{1: 24.49233268016564, 2: 24.40396952917791, 3: 10.423212717120844}</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>24.49233268016564</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -570,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.64390281432433</v>
+        <v>20.91633243111433</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25.62830940289028</v>
+        <v>18.68157194497716</v>
       </c>
     </row>
     <row r="4">
@@ -586,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.041780988498036</v>
+        <v>9.688338461963468</v>
       </c>
     </row>
   </sheetData>
@@ -622,31 +644,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>157.3369947292637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>12.40690397126921</v>
+        <v>14.51092521859989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>23.78356530972341</v>
+        <v>33.45899338520347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -654,47 +676,47 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12.40690397126921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>43.63225128378009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>2.4100210375533</v>
+        <v>102.9498265283679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>12.34055103781536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B10" t="n">
-        <v>11.05600234642445</v>
+        <v>117.7271713200767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -702,119 +724,119 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="n">
-        <v>2.311344596545908</v>
+        <v>102.7546766448309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B13" t="n">
-        <v>14.51092521859989</v>
+        <v>55.02143266042297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B14" t="n">
-        <v>1.443872740254832</v>
+        <v>64.014469506853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>58.3737810522365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>11.05600234642445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" t="n">
-        <v>5.656309862791993</v>
+        <v>7.38362615615368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6.680975169297065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B19" t="n">
-        <v>4.081480851304518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B20" t="n">
-        <v>2.495683799086628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B21" t="n">
-        <v>7.841286358294752</v>
+        <v>148.6665735977539</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="n">
-        <v>10.7124733166528</v>
+        <v>3.095341553961646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="n">
-        <v>30.2046872598171</v>
+        <v>7.192516830324394</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>50.68582083615752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B25" t="n">
-        <v>43.75703521309202</v>
+        <v>77.33639110490266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -822,66 +844,66 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.239225894192213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B28" t="n">
-        <v>44.1489451872811</v>
+        <v>227.8149379391371</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B29" t="n">
-        <v>5.095759490605287</v>
+        <v>98.51729185543024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B30" t="n">
-        <v>65.53599841198913</v>
+        <v>206.6876634637018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>274.3467370661785</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" t="n">
-        <v>21.80510244324505</v>
+        <v>126.6861835182713</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B33" t="n">
-        <v>47.97251572676605</v>
+        <v>143.4527956620227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B34" t="n">
-        <v>51.99733812293077</v>
+        <v>181.6466433256829</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +942,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="n">
-        <v>72.74054188979582</v>
+        <v>237.0718535553543</v>
       </c>
     </row>
     <row r="3">
@@ -928,7 +950,7 @@
         <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>29.83128076912465</v>
+        <v>18.79319475124372</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +958,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="n">
-        <v>19.34479443976015</v>
+        <v>199.1755303241974</v>
       </c>
     </row>
     <row r="5">
@@ -944,7 +966,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>56.85921984356083</v>
+        <v>42.63967538626794</v>
       </c>
     </row>
     <row r="6">
@@ -952,7 +974,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>110.0324439378454</v>
+        <v>54.52749960836772</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +982,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="n">
-        <v>15.35298244508295</v>
+        <v>12.52455532033676</v>
       </c>
     </row>
     <row r="8">
@@ -968,7 +990,7 @@
         <v>72</v>
       </c>
       <c r="B8" t="n">
-        <v>41.25109885656066</v>
+        <v>26.00252710347144</v>
       </c>
     </row>
     <row r="9">
@@ -976,7 +998,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="n">
-        <v>37.91364772431903</v>
+        <v>70.83342569144631</v>
       </c>
     </row>
     <row r="10">
@@ -984,7 +1006,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="n">
-        <v>20.20091395355177</v>
+        <v>115.8832596571286</v>
       </c>
     </row>
     <row r="11">
@@ -992,7 +1014,7 @@
         <v>75</v>
       </c>
       <c r="B11" t="n">
-        <v>96.07588825643599</v>
+        <v>74.74261080712773</v>
       </c>
     </row>
     <row r="12">
@@ -1000,7 +1022,7 @@
         <v>76</v>
       </c>
       <c r="B12" t="n">
-        <v>41.17493414409039</v>
+        <v>41.5357816187333</v>
       </c>
     </row>
     <row r="13">
@@ -1008,7 +1030,7 @@
         <v>77</v>
       </c>
       <c r="B13" t="n">
-        <v>21.83280893405564</v>
+        <v>22.18153736260281</v>
       </c>
     </row>
     <row r="14">
@@ -1016,7 +1038,7 @@
         <v>78</v>
       </c>
       <c r="B14" t="n">
-        <v>33.19082558773255</v>
+        <v>150.4790635192654</v>
       </c>
     </row>
     <row r="15">
@@ -1024,7 +1046,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="n">
-        <v>51.22105266211431</v>
+        <v>143.4175299025477</v>
       </c>
     </row>
     <row r="16">
@@ -1032,7 +1054,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>95.439994289227</v>
+        <v>259.3207700528998</v>
       </c>
     </row>
     <row r="17">
@@ -1040,7 +1062,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="n">
-        <v>30.52934142788849</v>
+        <v>194.3337983018777</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1070,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="n">
-        <v>21.97132232948902</v>
+        <v>114.117550128967</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1078,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="n">
-        <v>59.06482307307004</v>
+        <v>41.42524267474737</v>
       </c>
     </row>
     <row r="20">
@@ -1064,7 +1086,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="n">
-        <v>100.3350683761007</v>
+        <v>177.3640464681528</v>
       </c>
     </row>
     <row r="21">
@@ -1072,7 +1094,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="n">
-        <v>51.88598929409227</v>
+        <v>130.2336471489023</v>
       </c>
     </row>
     <row r="22">
@@ -1080,7 +1102,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="n">
-        <v>84.17854945153994</v>
+        <v>256.5178206189057</v>
       </c>
     </row>
     <row r="23">
@@ -1088,7 +1110,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="n">
-        <v>49.46331691485219</v>
+        <v>210.4204911460737</v>
       </c>
     </row>
     <row r="24">
@@ -1096,7 +1118,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="n">
-        <v>34.36263803313825</v>
+        <v>235.8099288072768</v>
       </c>
     </row>
     <row r="25">
@@ -1104,7 +1126,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="n">
-        <v>31.81199243446959</v>
+        <v>66.92963659292234</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1134,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="n">
-        <v>35.32246365217839</v>
+        <v>88.42247223271008</v>
       </c>
     </row>
     <row r="27">
@@ -1120,7 +1142,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="n">
-        <v>82.81794667490816</v>
+        <v>81.19939519645399</v>
       </c>
     </row>
     <row r="28">
@@ -1128,7 +1150,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="n">
-        <v>43.49539232523751</v>
+        <v>39.6654021678637</v>
       </c>
     </row>
     <row r="29">
@@ -1136,7 +1158,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="n">
-        <v>19.68583258222809</v>
+        <v>47.40035792010114</v>
       </c>
     </row>
     <row r="30">
@@ -1144,7 +1166,7 @@
         <v>94</v>
       </c>
       <c r="B30" t="n">
-        <v>29.17567837320684</v>
+        <v>35.94548155063129</v>
       </c>
     </row>
     <row r="31">
@@ -1152,7 +1174,7 @@
         <v>95</v>
       </c>
       <c r="B31" t="n">
-        <v>53.75852769970996</v>
+        <v>282.9450827038467</v>
       </c>
     </row>
     <row r="32">
@@ -1160,7 +1182,7 @@
         <v>96</v>
       </c>
       <c r="B32" t="n">
-        <v>14.32899020449196</v>
+        <v>21.52150703481635</v>
       </c>
     </row>
     <row r="33">
@@ -1168,7 +1190,7 @@
         <v>97</v>
       </c>
       <c r="B33" t="n">
-        <v>31.67571354806494</v>
+        <v>77.23697888491743</v>
       </c>
     </row>
     <row r="34">
@@ -1176,7 +1198,7 @@
         <v>98</v>
       </c>
       <c r="B34" t="n">
-        <v>24.37569485501956</v>
+        <v>17.2292851195561</v>
       </c>
     </row>
   </sheetData>
